--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nppa-Npr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nppa-Npr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Nppa</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02509733333333333</v>
+        <v>0.1004046666666667</v>
       </c>
       <c r="H2">
-        <v>0.075292</v>
+        <v>0.301214</v>
       </c>
       <c r="I2">
-        <v>0.06545249387023989</v>
+        <v>0.3697907746891698</v>
       </c>
       <c r="J2">
-        <v>0.07032067955860447</v>
+        <v>0.44646652694238</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.52582633333333</v>
+        <v>11.839004</v>
       </c>
       <c r="N2">
-        <v>52.577479</v>
+        <v>35.517012</v>
       </c>
       <c r="O2">
-        <v>0.5849657972467295</v>
+        <v>0.4816941403820247</v>
       </c>
       <c r="P2">
-        <v>0.6146095941370401</v>
+        <v>0.5139419866672059</v>
       </c>
       <c r="Q2">
-        <v>0.4398515054297778</v>
+        <v>1.188691250285333</v>
       </c>
       <c r="R2">
-        <v>3.958663548868</v>
+        <v>10.698221252568</v>
       </c>
       <c r="S2">
-        <v>0.03828747025859155</v>
+        <v>0.1781260493351026</v>
       </c>
       <c r="T2">
-        <v>0.04321976432295474</v>
+        <v>0.2294578938371744</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02509733333333333</v>
+        <v>0.1004046666666667</v>
       </c>
       <c r="H3">
-        <v>0.075292</v>
+        <v>0.301214</v>
       </c>
       <c r="I3">
-        <v>0.06545249387023989</v>
+        <v>0.3697907746891698</v>
       </c>
       <c r="J3">
-        <v>0.07032067955860447</v>
+        <v>0.44646652694238</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>24.187421</v>
       </c>
       <c r="O3">
-        <v>0.2691040779761861</v>
+        <v>0.3280382642169655</v>
       </c>
       <c r="P3">
-        <v>0.2827412285026393</v>
+        <v>0.3499993524538634</v>
       </c>
       <c r="Q3">
-        <v>0.2023465891035556</v>
+        <v>0.8095099810104445</v>
       </c>
       <c r="R3">
-        <v>1.821119301932</v>
+        <v>7.285589829094</v>
       </c>
       <c r="S3">
-        <v>0.01761353301419288</v>
+        <v>0.1213055238524822</v>
       </c>
       <c r="T3">
-        <v>0.01988255532754026</v>
+        <v>0.1562629953221584</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02509733333333333</v>
+        <v>0.1004046666666667</v>
       </c>
       <c r="H4">
-        <v>0.075292</v>
+        <v>0.301214</v>
       </c>
       <c r="I4">
-        <v>0.06545249387023989</v>
+        <v>0.3697907746891698</v>
       </c>
       <c r="J4">
-        <v>0.07032067955860447</v>
+        <v>0.44646652694238</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.03698266666666667</v>
+        <v>0.049877</v>
       </c>
       <c r="N4">
-        <v>0.110948</v>
+        <v>0.149631</v>
       </c>
       <c r="O4">
-        <v>0.00123438374199969</v>
+        <v>0.002029347962027401</v>
       </c>
       <c r="P4">
-        <v>0.001296937520536432</v>
+        <v>0.002165206166751885</v>
       </c>
       <c r="Q4">
-        <v>0.000928166312888889</v>
+        <v>0.005007883559333333</v>
       </c>
       <c r="R4">
-        <v>0.008353496816</v>
+        <v>0.045070952034</v>
       </c>
       <c r="S4">
-        <v>8.079349430675851E-05</v>
+        <v>0.0007504341549920005</v>
       </c>
       <c r="T4">
-        <v>9.120152778917342E-05</v>
+        <v>0.0009666920773839379</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02509733333333333</v>
+        <v>0.1004046666666667</v>
       </c>
       <c r="H5">
-        <v>0.075292</v>
+        <v>0.301214</v>
       </c>
       <c r="I5">
-        <v>0.06545249387023989</v>
+        <v>0.3697907746891698</v>
       </c>
       <c r="J5">
-        <v>0.07032067955860447</v>
+        <v>0.44646652694238</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.3351465</v>
+        <v>4.6264905</v>
       </c>
       <c r="N5">
-        <v>8.670292999999999</v>
+        <v>9.252981</v>
       </c>
       <c r="O5">
-        <v>0.1446957410350847</v>
+        <v>0.1882382474389825</v>
       </c>
       <c r="P5">
-        <v>0.1013522398397842</v>
+        <v>0.1338934547121788</v>
       </c>
       <c r="Q5">
-        <v>0.1088006167593333</v>
+        <v>0.464521236489</v>
       </c>
       <c r="R5">
-        <v>0.6528037005559999</v>
+        <v>2.787127418934</v>
       </c>
       <c r="S5">
-        <v>0.0094706971031487</v>
+        <v>0.06960876734659298</v>
       </c>
       <c r="T5">
-        <v>0.007127158380320292</v>
+        <v>0.0597789457056633</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -794,10 +791,10 @@
         <v>0.093667</v>
       </c>
       <c r="I6">
-        <v>0.08142616404589811</v>
+        <v>0.1149919741207596</v>
       </c>
       <c r="J6">
-        <v>0.08748242963682468</v>
+        <v>0.1388354464902425</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.52582633333333</v>
+        <v>11.839004</v>
       </c>
       <c r="N6">
-        <v>52.577479</v>
+        <v>35.517012</v>
       </c>
       <c r="O6">
-        <v>0.5849657972467295</v>
+        <v>0.4816941403820247</v>
       </c>
       <c r="P6">
-        <v>0.6146095941370401</v>
+        <v>0.5139419866672059</v>
       </c>
       <c r="Q6">
-        <v>0.5471971917214445</v>
+        <v>0.3696413292226667</v>
       </c>
       <c r="R6">
-        <v>4.924774725493</v>
+        <v>3.326771963004</v>
       </c>
       <c r="S6">
-        <v>0.04763152096785177</v>
+        <v>0.05539096012493132</v>
       </c>
       <c r="T6">
-        <v>0.05376754057321098</v>
+        <v>0.0713533651890238</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -856,10 +853,10 @@
         <v>0.093667</v>
       </c>
       <c r="I7">
-        <v>0.08142616404589811</v>
+        <v>0.1149919741207596</v>
       </c>
       <c r="J7">
-        <v>0.08748242963682468</v>
+        <v>0.1388354464902425</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +871,10 @@
         <v>24.187421</v>
       </c>
       <c r="O7">
-        <v>0.2691040779761861</v>
+        <v>0.3280382642169655</v>
       </c>
       <c r="P7">
-        <v>0.2827412285026393</v>
+        <v>0.3499993524538634</v>
       </c>
       <c r="Q7">
         <v>0.2517292403118889</v>
@@ -886,10 +883,10 @@
         <v>2.265563162807</v>
       </c>
       <c r="S7">
-        <v>0.02191211279870909</v>
+        <v>0.03772176758945619</v>
       </c>
       <c r="T7">
-        <v>0.02473488962791151</v>
+        <v>0.04859231636922789</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -918,40 +915,40 @@
         <v>0.093667</v>
       </c>
       <c r="I8">
-        <v>0.08142616404589811</v>
+        <v>0.1149919741207596</v>
       </c>
       <c r="J8">
-        <v>0.08748242963682468</v>
+        <v>0.1388354464902425</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.03698266666666667</v>
+        <v>0.049877</v>
       </c>
       <c r="N8">
-        <v>0.110948</v>
+        <v>0.149631</v>
       </c>
       <c r="O8">
-        <v>0.00123438374199969</v>
+        <v>0.002029347962027401</v>
       </c>
       <c r="P8">
-        <v>0.001296937520536432</v>
+        <v>0.002165206166751885</v>
       </c>
       <c r="Q8">
-        <v>0.001154685146222222</v>
+        <v>0.001557276319666667</v>
       </c>
       <c r="R8">
-        <v>0.010392166316</v>
+        <v>0.014015486877</v>
       </c>
       <c r="S8">
-        <v>0.0001005111330716564</v>
+        <v>0.0002333587283314711</v>
       </c>
       <c r="T8">
-        <v>0.0001134592453836863</v>
+        <v>0.0003006073649044245</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +977,10 @@
         <v>0.093667</v>
       </c>
       <c r="I9">
-        <v>0.08142616404589811</v>
+        <v>0.1149919741207596</v>
       </c>
       <c r="J9">
-        <v>0.08748242963682468</v>
+        <v>0.1388354464902425</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.3351465</v>
+        <v>4.6264905</v>
       </c>
       <c r="N9">
-        <v>8.670292999999999</v>
+        <v>9.252981</v>
       </c>
       <c r="O9">
-        <v>0.1446957410350847</v>
+        <v>0.1882382474389825</v>
       </c>
       <c r="P9">
-        <v>0.1013522398397842</v>
+        <v>0.1338934547121788</v>
       </c>
       <c r="Q9">
-        <v>0.1353533890718333</v>
+        <v>0.1444498285545</v>
       </c>
       <c r="R9">
-        <v>0.812120334431</v>
+        <v>0.866698971327</v>
       </c>
       <c r="S9">
-        <v>0.0117820191462656</v>
+        <v>0.02164588767804062</v>
       </c>
       <c r="T9">
-        <v>0.008866540190318501</v>
+        <v>0.0185891575670864</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1036,16 +1033,16 @@
         <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.0796355</v>
+        <v>0.1398905</v>
       </c>
       <c r="H10">
-        <v>0.159271</v>
+        <v>0.279781</v>
       </c>
       <c r="I10">
-        <v>0.2076850957181436</v>
+        <v>0.5152172511900707</v>
       </c>
       <c r="J10">
-        <v>0.1487547807732361</v>
+        <v>0.4146980265673775</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.52582633333333</v>
+        <v>11.839004</v>
       </c>
       <c r="N10">
-        <v>52.577479</v>
+        <v>35.517012</v>
       </c>
       <c r="O10">
-        <v>0.5849657972467295</v>
+        <v>0.4816941403820247</v>
       </c>
       <c r="P10">
-        <v>0.6146095941370401</v>
+        <v>0.5139419866672059</v>
       </c>
       <c r="Q10">
-        <v>1.395677942968167</v>
+        <v>1.656164189062</v>
       </c>
       <c r="R10">
-        <v>8.374067657809</v>
+        <v>9.936985134372</v>
       </c>
       <c r="S10">
-        <v>0.1214886775930272</v>
+        <v>0.2481771309219908</v>
       </c>
       <c r="T10">
-        <v>0.09142611543698301</v>
+        <v>0.2131307276410077</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1098,16 +1095,16 @@
         <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.0796355</v>
+        <v>0.1398905</v>
       </c>
       <c r="H11">
-        <v>0.159271</v>
+        <v>0.279781</v>
       </c>
       <c r="I11">
-        <v>0.2076850957181436</v>
+        <v>0.5152172511900707</v>
       </c>
       <c r="J11">
-        <v>0.1487547807732361</v>
+        <v>0.4146980265673775</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1119,22 @@
         <v>24.187421</v>
       </c>
       <c r="O11">
-        <v>0.2691040779761861</v>
+        <v>0.3280382642169655</v>
       </c>
       <c r="P11">
-        <v>0.2827412285026393</v>
+        <v>0.3499993524538634</v>
       </c>
       <c r="Q11">
-        <v>0.6420591216818333</v>
+        <v>1.127863472466833</v>
       </c>
       <c r="R11">
-        <v>3.852354730091</v>
+        <v>6.767180834801001</v>
       </c>
       <c r="S11">
-        <v>0.05588890619262699</v>
+        <v>0.1690109727750271</v>
       </c>
       <c r="T11">
-        <v>0.04205910946146556</v>
+        <v>0.1451440407624772</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1142,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,46 +1157,46 @@
         <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.0796355</v>
+        <v>0.1398905</v>
       </c>
       <c r="H12">
-        <v>0.159271</v>
+        <v>0.279781</v>
       </c>
       <c r="I12">
-        <v>0.2076850957181436</v>
+        <v>0.5152172511900707</v>
       </c>
       <c r="J12">
-        <v>0.1487547807732361</v>
+        <v>0.4146980265673775</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.03698266666666667</v>
+        <v>0.049877</v>
       </c>
       <c r="N12">
-        <v>0.110948</v>
+        <v>0.149631</v>
       </c>
       <c r="O12">
-        <v>0.00123438374199969</v>
+        <v>0.002029347962027401</v>
       </c>
       <c r="P12">
-        <v>0.001296937520536432</v>
+        <v>0.002165206166751885</v>
       </c>
       <c r="Q12">
-        <v>0.002945133151333333</v>
+        <v>0.006977318468500001</v>
       </c>
       <c r="R12">
-        <v>0.017670798908</v>
+        <v>0.04186391081100001</v>
       </c>
       <c r="S12">
-        <v>0.000256363105610126</v>
+        <v>0.001045555078703929</v>
       </c>
       <c r="T12">
-        <v>0.0001929256565439813</v>
+        <v>0.0008979067244635228</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1204,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -1222,16 +1219,16 @@
         <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.0796355</v>
+        <v>0.1398905</v>
       </c>
       <c r="H13">
-        <v>0.159271</v>
+        <v>0.279781</v>
       </c>
       <c r="I13">
-        <v>0.2076850957181436</v>
+        <v>0.5152172511900707</v>
       </c>
       <c r="J13">
-        <v>0.1487547807732361</v>
+        <v>0.4146980265673775</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.3351465</v>
+        <v>4.6264905</v>
       </c>
       <c r="N13">
-        <v>8.670292999999999</v>
+        <v>9.252981</v>
       </c>
       <c r="O13">
-        <v>0.1446957410350847</v>
+        <v>0.1882382474389825</v>
       </c>
       <c r="P13">
-        <v>0.1013522398397842</v>
+        <v>0.1338934547121788</v>
       </c>
       <c r="Q13">
-        <v>0.3452315591007499</v>
+        <v>0.64720206929025</v>
       </c>
       <c r="R13">
-        <v>1.380926236403</v>
+        <v>2.588808277161</v>
       </c>
       <c r="S13">
-        <v>0.03005114882687929</v>
+        <v>0.09698359241434894</v>
       </c>
       <c r="T13">
-        <v>0.01507663021824355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.2474883333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.7424649999999999</v>
-      </c>
-      <c r="I14">
-        <v>0.6454362463657183</v>
-      </c>
-      <c r="J14">
-        <v>0.6934421100313347</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>17.52582633333333</v>
-      </c>
-      <c r="N14">
-        <v>52.577479</v>
-      </c>
-      <c r="O14">
-        <v>0.5849657972467295</v>
-      </c>
-      <c r="P14">
-        <v>0.6146095941370401</v>
-      </c>
-      <c r="Q14">
-        <v>4.337437549526111</v>
-      </c>
-      <c r="R14">
-        <v>39.036937945735</v>
-      </c>
-      <c r="S14">
-        <v>0.3775581284272589</v>
-      </c>
-      <c r="T14">
-        <v>0.4261961738038913</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.2474883333333333</v>
-      </c>
-      <c r="H15">
-        <v>0.7424649999999999</v>
-      </c>
-      <c r="I15">
-        <v>0.6454362463657183</v>
-      </c>
-      <c r="J15">
-        <v>0.6934421100313347</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>8.062473666666667</v>
-      </c>
-      <c r="N15">
-        <v>24.187421</v>
-      </c>
-      <c r="O15">
-        <v>0.2691040779761861</v>
-      </c>
-      <c r="P15">
-        <v>0.2827412285026393</v>
-      </c>
-      <c r="Q15">
-        <v>1.995368170307222</v>
-      </c>
-      <c r="R15">
-        <v>17.958313532765</v>
-      </c>
-      <c r="S15">
-        <v>0.1736895259706571</v>
-      </c>
-      <c r="T15">
-        <v>0.1960646740857219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.2474883333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.7424649999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.6454362463657183</v>
-      </c>
-      <c r="J16">
-        <v>0.6934421100313347</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.03698266666666667</v>
-      </c>
-      <c r="N16">
-        <v>0.110948</v>
-      </c>
-      <c r="O16">
-        <v>0.00123438374199969</v>
-      </c>
-      <c r="P16">
-        <v>0.001296937520536432</v>
-      </c>
-      <c r="Q16">
-        <v>0.009152778535555555</v>
-      </c>
-      <c r="R16">
-        <v>0.08237500682</v>
-      </c>
-      <c r="S16">
-        <v>0.0007967160090111494</v>
-      </c>
-      <c r="T16">
-        <v>0.0008993510908195908</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.2474883333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.7424649999999999</v>
-      </c>
-      <c r="I17">
-        <v>0.6454362463657183</v>
-      </c>
-      <c r="J17">
-        <v>0.6934421100313347</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>4.3351465</v>
-      </c>
-      <c r="N17">
-        <v>8.670292999999999</v>
-      </c>
-      <c r="O17">
-        <v>0.1446957410350847</v>
-      </c>
-      <c r="P17">
-        <v>0.1013522398397842</v>
-      </c>
-      <c r="Q17">
-        <v>1.072898182040833</v>
-      </c>
-      <c r="R17">
-        <v>6.437389092244999</v>
-      </c>
-      <c r="S17">
-        <v>0.0933918759587911</v>
-      </c>
-      <c r="T17">
-        <v>0.07028191105090188</v>
+        <v>0.05552535143942906</v>
       </c>
     </row>
   </sheetData>
